--- a/5- cadastrar_GUI_Pandas/arquivo.xlsx
+++ b/5- cadastrar_GUI_Pandas/arquivo.xlsx
@@ -168,11 +168,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -184,9 +181,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -496,211 +490,197 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5">
+      <c r="B2" s="4">
         <v>18</v>
       </c>
-      <c r="D2" s="5">
+      <c r="C2" s="4">
         <v>11111111111</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5">
+      <c r="E2" s="4">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5">
+      <c r="H2" s="4">
         <v>11111111</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5">
+      <c r="B3" s="4">
         <v>21</v>
       </c>
-      <c r="D3" s="5">
+      <c r="C3" s="4">
         <v>22222222222</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5">
+      <c r="E3" s="4">
         <v>250</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5">
+      <c r="H3" s="4">
         <v>22222222</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5">
+      <c r="B4" s="4">
         <v>35</v>
       </c>
-      <c r="D4" s="5">
+      <c r="C4" s="4">
         <v>33333333333</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5">
+      <c r="E4" s="4">
         <v>1922</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5">
+      <c r="H4" s="4">
         <v>33333333</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5">
+      <c r="B5" s="4">
         <v>25</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C5" s="4">
         <v>44444444444</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="5">
+      <c r="E5" s="4">
         <v>599</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="5">
+      <c r="H5" s="4">
         <v>44444444</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/5- cadastrar_GUI_Pandas/arquivo.xlsx
+++ b/5- cadastrar_GUI_Pandas/arquivo.xlsx
@@ -168,8 +168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -181,6 +184,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -490,197 +496,211 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="5">
         <v>18</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="5">
         <v>11111111111</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="5">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="5">
         <v>11111111</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="5">
         <v>21</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="5">
         <v>22222222222</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="5">
         <v>250</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="5">
         <v>22222222</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="5">
         <v>35</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="5">
         <v>33333333333</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="5">
         <v>1922</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="5">
         <v>33333333</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="5">
         <v>25</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="5">
         <v>44444444444</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="5">
         <v>599</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="5">
         <v>44444444</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
